--- a/lib/Book.xlsx
+++ b/lib/Book.xlsx
@@ -3,21 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JANARDHAN\OneDrive\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865A044D-E746-4CA2-9FBF-83AF9A1D0BF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{209374BC-5868-470C-9506-15B3BE32E7DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="3420" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testdata" sheetId="1" r:id="rId1"/>
     <sheet name="sample" sheetId="2" r:id="rId2"/>
     <sheet name="demo" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -454,9 +450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
